--- a/词库.xlsx
+++ b/词库.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="249">
   <si>
     <t>handheld</t>
   </si>
@@ -679,99 +679,170 @@
     <t>programmable</t>
   </si>
   <si>
+    <t>简化</t>
+  </si>
+  <si>
+    <t>misnomer</t>
+  </si>
+  <si>
+    <t>flexible</t>
+  </si>
+  <si>
+    <t>overlap</t>
+  </si>
+  <si>
+    <t>internal</t>
+  </si>
+  <si>
+    <t>footprint</t>
+  </si>
+  <si>
+    <t>implement</t>
+  </si>
+  <si>
+    <t>simplicity</t>
+  </si>
+  <si>
+    <t>pipelining</t>
+  </si>
+  <si>
+    <t>orthogonal</t>
+  </si>
+  <si>
+    <t>正交的</t>
+  </si>
+  <si>
+    <t>duplicate</t>
+  </si>
+  <si>
+    <t>duplication</t>
+  </si>
+  <si>
+    <t>limitation</t>
+  </si>
+  <si>
+    <t>限制</t>
+  </si>
+  <si>
+    <t>寿命</t>
+  </si>
+  <si>
+    <t>算法</t>
+  </si>
+  <si>
+    <t>晶体管</t>
+  </si>
+  <si>
+    <t>可编程</t>
+  </si>
+  <si>
+    <t>用词不当</t>
+  </si>
+  <si>
+    <t>灵活的</t>
+  </si>
+  <si>
+    <t>重叠</t>
+  </si>
+  <si>
+    <t>内部的</t>
+  </si>
+  <si>
+    <t>足迹</t>
+  </si>
+  <si>
+    <t>简单</t>
+  </si>
+  <si>
+    <t>管道输送</t>
+  </si>
+  <si>
+    <t>复制</t>
+  </si>
+  <si>
+    <t>重复</t>
+  </si>
+  <si>
+    <t>versus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>simplify</t>
-  </si>
-  <si>
-    <t>简化</t>
-  </si>
-  <si>
-    <t>misnomer</t>
-  </si>
-  <si>
-    <t>flexible</t>
-  </si>
-  <si>
-    <t>overlap</t>
-  </si>
-  <si>
-    <t>internal</t>
-  </si>
-  <si>
-    <t>footprint</t>
-  </si>
-  <si>
-    <t>implement</t>
-  </si>
-  <si>
-    <t>simplicity</t>
-  </si>
-  <si>
-    <t>pipelining</t>
-  </si>
-  <si>
-    <t>orthogonal</t>
-  </si>
-  <si>
-    <t>正交的</t>
-  </si>
-  <si>
-    <t>duplicate</t>
-  </si>
-  <si>
-    <t>duplication</t>
-  </si>
-  <si>
-    <t>limitation</t>
-  </si>
-  <si>
-    <t>限制</t>
-  </si>
-  <si>
-    <t>寿命</t>
-  </si>
-  <si>
-    <t>算法</t>
-  </si>
-  <si>
-    <t>晶体管</t>
-  </si>
-  <si>
-    <t>可编程</t>
-  </si>
-  <si>
-    <t>用词不当</t>
-  </si>
-  <si>
-    <t>灵活的</t>
-  </si>
-  <si>
-    <t>重叠</t>
-  </si>
-  <si>
-    <t>内部的</t>
-  </si>
-  <si>
-    <t>足迹</t>
-  </si>
-  <si>
-    <t>简单</t>
-  </si>
-  <si>
-    <t>管道输送</t>
-  </si>
-  <si>
-    <t>复制</t>
-  </si>
-  <si>
-    <t>重复</t>
-  </si>
-  <si>
-    <t>versus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predictable</t>
+  </si>
+  <si>
+    <t>可预测的</t>
+  </si>
+  <si>
+    <t>latency</t>
+  </si>
+  <si>
+    <t>延迟</t>
+  </si>
+  <si>
+    <t>day 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modular</t>
+  </si>
+  <si>
+    <t>模块化</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>密度</t>
+  </si>
+  <si>
+    <t>multiplier</t>
+  </si>
+  <si>
+    <t>乘数</t>
+  </si>
+  <si>
+    <t>emulator</t>
+  </si>
+  <si>
+    <t>仿真器</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>二元的</t>
+  </si>
+  <si>
+    <t>primitive</t>
+  </si>
+  <si>
+    <t>原始的</t>
+  </si>
+  <si>
+    <t>parallel</t>
+  </si>
+  <si>
+    <t>平行的</t>
+  </si>
+  <si>
+    <t>increment</t>
+  </si>
+  <si>
+    <t>增量</t>
+  </si>
+  <si>
+    <t>close-up</t>
+  </si>
+  <si>
+    <t>特写镜头</t>
   </si>
 </sst>
 </file>
@@ -1133,13 +1204,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="1" max="1" width="22.125" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1922,7 +1993,7 @@
         <v>191</v>
       </c>
       <c r="B98" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
@@ -1930,7 +2001,7 @@
         <v>192</v>
       </c>
       <c r="B99" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
@@ -1938,7 +2009,7 @@
         <v>193</v>
       </c>
       <c r="B100" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
@@ -1946,68 +2017,68 @@
         <v>194</v>
       </c>
       <c r="B101" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
+        <v>223</v>
+      </c>
+      <c r="B102" t="s">
         <v>224</v>
-      </c>
-      <c r="B102" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
+        <v>225</v>
+      </c>
+      <c r="B103" t="s">
         <v>195</v>
-      </c>
-      <c r="B103" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B104" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B105" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B106" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B107" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B108" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B109" t="s">
         <v>188</v>
@@ -2015,50 +2086,149 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B110" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B111" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
+        <v>204</v>
+      </c>
+      <c r="B112" t="s">
         <v>205</v>
       </c>
-      <c r="B112" t="s">
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A113" t="s">
+      <c r="B113" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
         <v>207</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B114" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A114" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
         <v>208</v>
       </c>
-      <c r="B114" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A115" t="s">
+      <c r="B115" t="s">
         <v>209</v>
       </c>
-      <c r="B115" t="s">
-        <v>210</v>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>226</v>
+      </c>
+      <c r="B116" t="s">
+        <v>227</v>
+      </c>
+      <c r="C116" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>228</v>
+      </c>
+      <c r="B117" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>231</v>
+      </c>
+      <c r="B118" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>233</v>
+      </c>
+      <c r="B119" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>235</v>
+      </c>
+      <c r="B120" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>237</v>
+      </c>
+      <c r="B121" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>239</v>
+      </c>
+      <c r="B122" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
+        <v>241</v>
+      </c>
+      <c r="B123" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
+        <v>243</v>
+      </c>
+      <c r="B124" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>245</v>
+      </c>
+      <c r="B125" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
+        <v>247</v>
+      </c>
+      <c r="B126" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>122</v>
+      </c>
+      <c r="B127" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.15">

--- a/词库.xlsx
+++ b/词库.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="281">
   <si>
     <t>handheld</t>
   </si>
@@ -843,6 +843,104 @@
   </si>
   <si>
     <t>特写镜头</t>
+  </si>
+  <si>
+    <t>privilege</t>
+  </si>
+  <si>
+    <t>特权</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>无效的</t>
+  </si>
+  <si>
+    <t>module</t>
+  </si>
+  <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>interface</t>
+  </si>
+  <si>
+    <t>接口</t>
+  </si>
+  <si>
+    <t>peripheral</t>
+  </si>
+  <si>
+    <t>外围设备</t>
+  </si>
+  <si>
+    <t>延迟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocal</t>
+  </si>
+  <si>
+    <t>原型的</t>
+  </si>
+  <si>
+    <t>integrated</t>
+  </si>
+  <si>
+    <t>综合</t>
+  </si>
+  <si>
+    <t>semiconductor</t>
+  </si>
+  <si>
+    <t>半导体</t>
+  </si>
+  <si>
+    <t>robust</t>
+  </si>
+  <si>
+    <t>健壮的</t>
+  </si>
+  <si>
+    <t>verify</t>
+  </si>
+  <si>
+    <t>验证</t>
+  </si>
+  <si>
+    <t>serial</t>
+  </si>
+  <si>
+    <t>连载</t>
+  </si>
+  <si>
+    <t>aerospace</t>
+  </si>
+  <si>
+    <t>航空航天</t>
+  </si>
+  <si>
+    <t>duplex</t>
+  </si>
+  <si>
+    <t>复式</t>
+  </si>
+  <si>
+    <t>simultaneously</t>
+  </si>
+  <si>
+    <t>同时</t>
+  </si>
+  <si>
+    <t>simplex</t>
+  </si>
+  <si>
+    <t>单纯形</t>
   </si>
 </sst>
 </file>
@@ -1204,8 +1302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2231,19 +2329,143 @@
         <v>147</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
+        <v>249</v>
+      </c>
+      <c r="B128" t="s">
+        <v>250</v>
+      </c>
+      <c r="C128" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>251</v>
+      </c>
+      <c r="B129" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>253</v>
+      </c>
+      <c r="B130" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+      <c r="B131" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>257</v>
+      </c>
+      <c r="B132" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
+        <v>228</v>
+      </c>
+      <c r="B133" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
+        <v>261</v>
+      </c>
+      <c r="B134" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
+        <v>263</v>
+      </c>
+      <c r="B135" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
+        <v>265</v>
+      </c>
+      <c r="B136" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
+        <v>267</v>
+      </c>
+      <c r="B137" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
+        <v>269</v>
+      </c>
+      <c r="B138" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>271</v>
+      </c>
+      <c r="B139" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+      <c r="B140" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>99</v>
+        <v>275</v>
+      </c>
+      <c r="B141" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
+        <v>277</v>
+      </c>
+      <c r="B142" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
+        <v>279</v>
+      </c>
+      <c r="B143" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
+        <v>277</v>
+      </c>
+      <c r="B144" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.15">

--- a/词库.xlsx
+++ b/词库.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="296">
   <si>
     <t>handheld</t>
   </si>
@@ -941,6 +941,54 @@
   </si>
   <si>
     <t>单纯形</t>
+  </si>
+  <si>
+    <t>external</t>
+  </si>
+  <si>
+    <t>manufacturer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部的</t>
+  </si>
+  <si>
+    <t>制造商</t>
+  </si>
+  <si>
+    <t>day 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>margin</t>
+  </si>
+  <si>
+    <t>边缘</t>
+  </si>
+  <si>
+    <t>MHz</t>
+  </si>
+  <si>
+    <t>兆赫</t>
+  </si>
+  <si>
+    <t>梅加赫兹</t>
+  </si>
+  <si>
+    <t>megabit</t>
+  </si>
+  <si>
+    <t>兆位</t>
+  </si>
+  <si>
+    <t>convert</t>
+  </si>
+  <si>
+    <t>转换</t>
+  </si>
+  <si>
+    <t>mega herz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1300,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:C200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="B149" sqref="A143:B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1827,7 +1875,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>114</v>
       </c>
@@ -1835,7 +1883,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>115</v>
       </c>
@@ -1843,7 +1891,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>116</v>
       </c>
@@ -1851,7 +1899,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>117</v>
       </c>
@@ -1859,7 +1907,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>118</v>
       </c>
@@ -1867,7 +1915,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>119</v>
       </c>
@@ -1875,7 +1923,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>120</v>
       </c>
@@ -1883,7 +1931,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>121</v>
       </c>
@@ -1891,7 +1939,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>122</v>
       </c>
@@ -1899,7 +1947,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>123</v>
       </c>
@@ -1907,7 +1955,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>124</v>
       </c>
@@ -1915,7 +1963,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>125</v>
       </c>
@@ -1923,7 +1971,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>126</v>
       </c>
@@ -1931,7 +1979,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>127</v>
       </c>
@@ -1939,7 +1987,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>159</v>
       </c>
@@ -1947,554 +1995,600 @@
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>97</v>
+      </c>
+      <c r="B80" t="s">
+        <v>96</v>
+      </c>
+      <c r="C80" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="B81" t="s">
-        <v>96</v>
-      </c>
-      <c r="C81" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B82" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B83" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B84" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B85" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B86" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B87" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B88" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B89" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B90" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B91" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B92" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B93" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B94" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B95" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B96" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B97" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B98" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B99" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B100" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="B101" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B102" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="B103" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B104" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B105" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B106" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B107" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B108" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B109" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B110" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B111" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B112" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B113" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B114" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="B115" t="s">
-        <v>209</v>
+        <v>227</v>
+      </c>
+      <c r="C115" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B116" t="s">
-        <v>227</v>
-      </c>
-      <c r="C116" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B117" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B118" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B119" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B120" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B121" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B122" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B123" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B124" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B125" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>247</v>
+        <v>122</v>
       </c>
       <c r="B126" t="s">
-        <v>248</v>
+        <v>147</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>122</v>
+        <v>249</v>
       </c>
       <c r="B127" t="s">
-        <v>147</v>
+        <v>250</v>
+      </c>
+      <c r="C127" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B128" t="s">
-        <v>250</v>
-      </c>
-      <c r="C128" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B129" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B130" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B131" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="B132" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="B133" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B134" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B135" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B136" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B137" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B138" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B139" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B140" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B141" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B142" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B143" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+        <v>283</v>
+      </c>
+      <c r="C143" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B144" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
+        <v>286</v>
+      </c>
+      <c r="B145" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
+        <v>288</v>
+      </c>
+      <c r="B146" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
+        <v>295</v>
+      </c>
+      <c r="B147" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
+        <v>291</v>
+      </c>
+      <c r="B148" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
+        <v>293</v>
+      </c>
+      <c r="B149" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A151" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A158" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A161" t="s">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A198" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2505,11 +2599,6 @@
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A201" t="s">
         <v>99</v>
       </c>
     </row>

--- a/词库.xlsx
+++ b/词库.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="314">
   <si>
     <t>handheld</t>
   </si>
@@ -988,6 +988,62 @@
   </si>
   <si>
     <t>mega herz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>configuration</t>
+  </si>
+  <si>
+    <t>配置</t>
+  </si>
+  <si>
+    <t>在这方面</t>
+  </si>
+  <si>
+    <t>appropriately</t>
+  </si>
+  <si>
+    <t>适当</t>
+  </si>
+  <si>
+    <t>configuraion</t>
+  </si>
+  <si>
+    <t>结构</t>
+  </si>
+  <si>
+    <t>individually</t>
+  </si>
+  <si>
+    <t>个别地</t>
+  </si>
+  <si>
+    <t>interconnect</t>
+  </si>
+  <si>
+    <t>互连</t>
+  </si>
+  <si>
+    <t>throughtput</t>
+  </si>
+  <si>
+    <t>输出通量</t>
+  </si>
+  <si>
+    <t>下降沿</t>
+  </si>
+  <si>
+    <t>ramble</t>
+  </si>
+  <si>
+    <t>漫无目的</t>
+  </si>
+  <si>
+    <t>in that regard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>falling edge</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1350,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="B149" sqref="A143:B149"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2569,12 +2625,74 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>99</v>
+        <v>296</v>
+      </c>
+      <c r="B150" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
+        <v>312</v>
+      </c>
+      <c r="B151" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A152" t="s">
+        <v>299</v>
+      </c>
+      <c r="B152" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A153" t="s">
+        <v>301</v>
+      </c>
+      <c r="B153" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A154" t="s">
+        <v>303</v>
+      </c>
+      <c r="B154" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A155" t="s">
+        <v>305</v>
+      </c>
+      <c r="B155" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A156" t="s">
+        <v>307</v>
+      </c>
+      <c r="B156" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A157" t="s">
+        <v>313</v>
+      </c>
+      <c r="B157" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>99</v>
+        <v>310</v>
+      </c>
+      <c r="B158" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.15">

--- a/词库.xlsx
+++ b/词库.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="329">
   <si>
     <t>handheld</t>
   </si>
@@ -1044,6 +1044,54 @@
   </si>
   <si>
     <t>falling edge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户手册</t>
+  </si>
+  <si>
+    <t>数据表</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>格式</t>
+  </si>
+  <si>
+    <t>communication</t>
+  </si>
+  <si>
+    <t>通信</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>率</t>
+  </si>
+  <si>
+    <t>setting</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>seail</t>
+  </si>
+  <si>
+    <t>赛尔</t>
+  </si>
+  <si>
+    <t>data sheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user' manual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day 6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1406,8 +1454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="B160" sqref="B160"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="D164" sqref="D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2583,7 +2631,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>286</v>
       </c>
@@ -2591,7 +2639,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>288</v>
       </c>
@@ -2599,7 +2647,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>295</v>
       </c>
@@ -2607,7 +2655,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>291</v>
       </c>
@@ -2615,7 +2663,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>293</v>
       </c>
@@ -2623,7 +2671,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>296</v>
       </c>
@@ -2631,7 +2679,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>312</v>
       </c>
@@ -2639,7 +2687,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>299</v>
       </c>
@@ -2647,7 +2695,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>301</v>
       </c>
@@ -2655,7 +2703,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>303</v>
       </c>
@@ -2663,7 +2711,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>305</v>
       </c>
@@ -2671,7 +2719,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>307</v>
       </c>
@@ -2679,7 +2727,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>313</v>
       </c>
@@ -2687,7 +2735,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>310</v>
       </c>
@@ -2695,14 +2743,79 @@
         <v>311</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+        <v>327</v>
+      </c>
+      <c r="B159" t="s">
+        <v>314</v>
+      </c>
+      <c r="C159" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>99</v>
+        <v>326</v>
+      </c>
+      <c r="B160" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A161" t="s">
+        <v>316</v>
+      </c>
+      <c r="B161" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A162" t="s">
+        <v>318</v>
+      </c>
+      <c r="B162" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A163" t="s">
+        <v>320</v>
+      </c>
+      <c r="B163" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A164" t="s">
+        <v>322</v>
+      </c>
+      <c r="B164" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A165" t="s">
+        <v>243</v>
+      </c>
+      <c r="B165" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A166" t="s">
+        <v>324</v>
+      </c>
+      <c r="B166" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A167" t="s">
+        <v>271</v>
+      </c>
+      <c r="B167" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.15">

--- a/词库.xlsx
+++ b/词库.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="337">
   <si>
     <t>handheld</t>
   </si>
@@ -1093,6 +1093,30 @@
   <si>
     <t>day 6</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>microelectronics</t>
+  </si>
+  <si>
+    <t>微电子</t>
+  </si>
+  <si>
+    <t>parity</t>
+  </si>
+  <si>
+    <t>平价</t>
+  </si>
+  <si>
+    <t>frame</t>
+  </si>
+  <si>
+    <t>框架</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>样品</t>
   </si>
 </sst>
 </file>
@@ -1455,7 +1479,7 @@
   <dimension ref="A1:C200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="D164" sqref="D164"/>
+      <selection activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2816,6 +2840,38 @@
       </c>
       <c r="B167" t="s">
         <v>272</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A168" t="s">
+        <v>329</v>
+      </c>
+      <c r="B168" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A169" t="s">
+        <v>331</v>
+      </c>
+      <c r="B169" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A170" t="s">
+        <v>333</v>
+      </c>
+      <c r="B170" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A171" t="s">
+        <v>335</v>
+      </c>
+      <c r="B171" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.15">

--- a/词库.xlsx
+++ b/词库.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="343">
   <si>
     <t>handheld</t>
   </si>
@@ -1117,6 +1117,24 @@
   </si>
   <si>
     <t>样品</t>
+  </si>
+  <si>
+    <t>cable</t>
+  </si>
+  <si>
+    <t>电缆</t>
+  </si>
+  <si>
+    <t>crossover</t>
+  </si>
+  <si>
+    <t>交叉</t>
+  </si>
+  <si>
+    <t>detect</t>
+  </si>
+  <si>
+    <t>发现</t>
   </si>
 </sst>
 </file>
@@ -1478,8 +1496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="C167" sqref="C167"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2872,6 +2890,30 @@
       </c>
       <c r="B171" t="s">
         <v>336</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A172" t="s">
+        <v>337</v>
+      </c>
+      <c r="B172" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A173" t="s">
+        <v>339</v>
+      </c>
+      <c r="B173" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A174" t="s">
+        <v>341</v>
+      </c>
+      <c r="B174" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.15">

--- a/词库.xlsx
+++ b/词库.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="357">
   <si>
     <t>handheld</t>
   </si>
@@ -1135,6 +1135,49 @@
   </si>
   <si>
     <t>发现</t>
+  </si>
+  <si>
+    <t>replace</t>
+  </si>
+  <si>
+    <t>代替</t>
+  </si>
+  <si>
+    <t>background</t>
+  </si>
+  <si>
+    <t>背景</t>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t>特征</t>
+  </si>
+  <si>
+    <t>enhancements</t>
+  </si>
+  <si>
+    <t>增强功能</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>细节</t>
+  </si>
+  <si>
+    <t>condense</t>
+  </si>
+  <si>
+    <t>压缩</t>
+  </si>
+  <si>
+    <t>majority</t>
+  </si>
+  <si>
+    <t>大多数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1496,8 +1539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="C164" sqref="C164"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="D177" sqref="D177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2914,6 +2957,62 @@
       </c>
       <c r="B174" t="s">
         <v>342</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A175" t="s">
+        <v>343</v>
+      </c>
+      <c r="B175" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A176" t="s">
+        <v>345</v>
+      </c>
+      <c r="B176" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A177" t="s">
+        <v>347</v>
+      </c>
+      <c r="B177" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A178" t="s">
+        <v>349</v>
+      </c>
+      <c r="B178" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A179" t="s">
+        <v>351</v>
+      </c>
+      <c r="B179" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A180" t="s">
+        <v>353</v>
+      </c>
+      <c r="B180" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A181" t="s">
+        <v>355</v>
+      </c>
+      <c r="B181" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.15">

--- a/词库.xlsx
+++ b/词库.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="375">
   <si>
     <t>handheld</t>
   </si>
@@ -1143,41 +1143,97 @@
     <t>代替</t>
   </si>
   <si>
+    <t>背景</t>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t>特征</t>
+  </si>
+  <si>
+    <t>enhancements</t>
+  </si>
+  <si>
+    <t>增强功能</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>细节</t>
+  </si>
+  <si>
+    <t>condense</t>
+  </si>
+  <si>
+    <t>压缩</t>
+  </si>
+  <si>
+    <t>majority</t>
+  </si>
+  <si>
+    <t>大多数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>background</t>
-  </si>
-  <si>
-    <t>背景</t>
-  </si>
-  <si>
-    <t>feature</t>
-  </si>
-  <si>
-    <t>特征</t>
-  </si>
-  <si>
-    <t>enhancements</t>
-  </si>
-  <si>
-    <t>增强功能</t>
-  </si>
-  <si>
-    <t>detail</t>
-  </si>
-  <si>
-    <t>细节</t>
-  </si>
-  <si>
-    <t>condense</t>
-  </si>
-  <si>
-    <t>压缩</t>
-  </si>
-  <si>
-    <t>majority</t>
-  </si>
-  <si>
-    <t>大多数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+  </si>
+  <si>
+    <t>interrupt</t>
+  </si>
+  <si>
+    <t>打断</t>
+  </si>
+  <si>
+    <t>enable</t>
+  </si>
+  <si>
+    <t>使可能</t>
+  </si>
+  <si>
+    <t>selection</t>
+  </si>
+  <si>
+    <t>选择</t>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trigger</t>
+  </si>
+  <si>
+    <t>触发</t>
+  </si>
+  <si>
+    <t>modem</t>
+  </si>
+  <si>
+    <t>调制解调器</t>
+  </si>
+  <si>
+    <t>overrun</t>
+  </si>
+  <si>
+    <t>超支</t>
+  </si>
+  <si>
+    <t>utility</t>
+  </si>
+  <si>
+    <t>效用</t>
+  </si>
+  <si>
+    <t>facility</t>
+  </si>
+  <si>
+    <t>设施</t>
   </si>
 </sst>
 </file>
@@ -1539,8 +1595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="D177" sqref="D177"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="C185" sqref="C185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2969,50 +3025,122 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
+        <v>356</v>
+      </c>
+      <c r="B176" t="s">
         <v>345</v>
-      </c>
-      <c r="B176" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
+        <v>346</v>
+      </c>
+      <c r="B177" t="s">
         <v>347</v>
-      </c>
-      <c r="B177" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
+        <v>348</v>
+      </c>
+      <c r="B178" t="s">
         <v>349</v>
-      </c>
-      <c r="B178" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
+        <v>350</v>
+      </c>
+      <c r="B179" t="s">
         <v>351</v>
-      </c>
-      <c r="B179" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
+        <v>352</v>
+      </c>
+      <c r="B180" t="s">
         <v>353</v>
-      </c>
-      <c r="B180" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
+        <v>354</v>
+      </c>
+      <c r="B181" t="s">
         <v>355</v>
       </c>
-      <c r="B181" t="s">
-        <v>356</v>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A182" t="s">
+        <v>364</v>
+      </c>
+      <c r="B182" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A183" t="s">
+        <v>358</v>
+      </c>
+      <c r="B183" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A184" t="s">
+        <v>360</v>
+      </c>
+      <c r="B184" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A185" t="s">
+        <v>362</v>
+      </c>
+      <c r="B185" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A186" t="s">
+        <v>365</v>
+      </c>
+      <c r="B186" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A187" t="s">
+        <v>367</v>
+      </c>
+      <c r="B187" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A188" t="s">
+        <v>369</v>
+      </c>
+      <c r="B188" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A189" t="s">
+        <v>371</v>
+      </c>
+      <c r="B189" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A190" t="s">
+        <v>373</v>
+      </c>
+      <c r="B190" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.15">

--- a/词库.xlsx
+++ b/词库.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="389">
   <si>
     <t>handheld</t>
   </si>
@@ -1234,6 +1234,50 @@
   </si>
   <si>
     <t>设施</t>
+  </si>
+  <si>
+    <t>day 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portable</t>
+  </si>
+  <si>
+    <t>便携式的</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>平台</t>
+  </si>
+  <si>
+    <t>re-use</t>
+  </si>
+  <si>
+    <t>再利用</t>
+  </si>
+  <si>
+    <t>thread</t>
+  </si>
+  <si>
+    <t>线</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>分配</t>
+  </si>
+  <si>
+    <t>maintain</t>
+  </si>
+  <si>
+    <t>保持</t>
   </si>
 </sst>
 </file>
@@ -1595,8 +1639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="C185" sqref="C185"/>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="B200" sqref="B200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3031,7 +3075,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>346</v>
       </c>
@@ -3039,7 +3083,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>348</v>
       </c>
@@ -3047,7 +3091,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>350</v>
       </c>
@@ -3055,7 +3099,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>352</v>
       </c>
@@ -3063,7 +3107,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>354</v>
       </c>
@@ -3071,15 +3115,18 @@
         <v>355</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>364</v>
       </c>
       <c r="B182" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C182" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>358</v>
       </c>
@@ -3087,7 +3134,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>360</v>
       </c>
@@ -3095,7 +3142,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>362</v>
       </c>
@@ -3103,7 +3150,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>365</v>
       </c>
@@ -3111,7 +3158,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>367</v>
       </c>
@@ -3119,7 +3166,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>369</v>
       </c>
@@ -3127,7 +3174,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>371</v>
       </c>
@@ -3135,7 +3182,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>373</v>
       </c>
@@ -3143,17 +3190,68 @@
         <v>374</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A191" t="s">
+        <v>377</v>
+      </c>
+      <c r="B191" t="s">
+        <v>378</v>
+      </c>
+      <c r="C191" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A192" t="s">
+        <v>379</v>
+      </c>
+      <c r="B192" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A193" t="s">
+        <v>381</v>
+      </c>
+      <c r="B193" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A194" t="s">
+        <v>383</v>
+      </c>
+      <c r="B194" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A195" t="s">
+        <v>385</v>
+      </c>
+      <c r="B195" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A196" t="s">
+        <v>387</v>
+      </c>
+      <c r="B196" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>99</v>
       </c>

--- a/词库.xlsx
+++ b/词库.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="413">
   <si>
     <t>handheld</t>
   </si>
@@ -380,9 +380,6 @@
     <t>updated</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>flip phone</t>
   </si>
   <si>
@@ -1218,73 +1215,176 @@
     <t>调制解调器</t>
   </si>
   <si>
+    <t>utility</t>
+  </si>
+  <si>
+    <t>效用</t>
+  </si>
+  <si>
+    <t>facility</t>
+  </si>
+  <si>
+    <t>设施</t>
+  </si>
+  <si>
+    <t>day 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便携式的</t>
+  </si>
+  <si>
+    <t>平台</t>
+  </si>
+  <si>
+    <t>re-use</t>
+  </si>
+  <si>
+    <t>再利用</t>
+  </si>
+  <si>
+    <t>thread</t>
+  </si>
+  <si>
+    <t>线</t>
+  </si>
+  <si>
+    <t>分配</t>
+  </si>
+  <si>
+    <t>maintain</t>
+  </si>
+  <si>
+    <t>保持</t>
+  </si>
+  <si>
     <t>overrun</t>
-  </si>
-  <si>
-    <t>超支</t>
-  </si>
-  <si>
-    <t>utility</t>
-  </si>
-  <si>
-    <t>效用</t>
-  </si>
-  <si>
-    <t>facility</t>
-  </si>
-  <si>
-    <t>设施</t>
-  </si>
-  <si>
-    <t>day 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>day 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溢出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>portable</t>
-  </si>
-  <si>
-    <t>便携式的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>platform</t>
-  </si>
-  <si>
-    <t>平台</t>
-  </si>
-  <si>
-    <t>re-use</t>
-  </si>
-  <si>
-    <t>再利用</t>
-  </si>
-  <si>
-    <t>thread</t>
-  </si>
-  <si>
-    <t>线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>assign</t>
-  </si>
-  <si>
-    <t>分配</t>
-  </si>
-  <si>
-    <t>maintain</t>
-  </si>
-  <si>
-    <t>保持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exception</t>
+  </si>
+  <si>
+    <t>partial</t>
+  </si>
+  <si>
+    <t>slices</t>
+  </si>
+  <si>
+    <t>time slice</t>
+  </si>
+  <si>
+    <t>execution</t>
+  </si>
+  <si>
+    <t>day 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常</t>
+  </si>
+  <si>
+    <t>执行</t>
+  </si>
+  <si>
+    <t>部分</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>片</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时间片</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash</t>
+  </si>
+  <si>
+    <t>搞砸</t>
+  </si>
+  <si>
+    <t>anode</t>
+  </si>
+  <si>
+    <t>阳极</t>
+  </si>
+  <si>
+    <t>cathode</t>
+  </si>
+  <si>
+    <t>阴极</t>
+  </si>
+  <si>
+    <t>segment</t>
+  </si>
+  <si>
+    <t>段</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>登记</t>
+  </si>
+  <si>
+    <t>resistor</t>
+  </si>
+  <si>
+    <t>电阻器</t>
+  </si>
+  <si>
+    <t>day 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1305,6 +1405,19 @@
       <color rgb="FF333333"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1329,11 +1442,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1637,10 +1753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C200"/>
+  <dimension ref="A1:C208"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="B200" sqref="B200"/>
+      <selection activeCell="E201" sqref="E201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1665,7 +1781,7 @@
         <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -2049,239 +2165,239 @@
         <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B60" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B62" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B64" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B66" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B71" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B76" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B79" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -2292,968 +2408,1055 @@
         <v>96</v>
       </c>
       <c r="C80" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" t="s">
         <v>160</v>
-      </c>
-      <c r="B81" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" t="s">
         <v>162</v>
-      </c>
-      <c r="B82" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" t="s">
         <v>164</v>
-      </c>
-      <c r="B83" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" t="s">
         <v>166</v>
-      </c>
-      <c r="B84" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" t="s">
         <v>168</v>
-      </c>
-      <c r="B85" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86" t="s">
         <v>170</v>
-      </c>
-      <c r="B86" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" t="s">
         <v>172</v>
-      </c>
-      <c r="B87" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
+        <v>173</v>
+      </c>
+      <c r="B88" t="s">
         <v>174</v>
-      </c>
-      <c r="B88" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B89" t="s">
         <v>176</v>
-      </c>
-      <c r="B89" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90" t="s">
         <v>178</v>
-      </c>
-      <c r="B90" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B91" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
+        <v>179</v>
+      </c>
+      <c r="B92" t="s">
         <v>180</v>
-      </c>
-      <c r="B92" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
+        <v>181</v>
+      </c>
+      <c r="B93" t="s">
         <v>182</v>
-      </c>
-      <c r="B93" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B94" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
+        <v>184</v>
+      </c>
+      <c r="B95" t="s">
         <v>185</v>
-      </c>
-      <c r="B95" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
+        <v>186</v>
+      </c>
+      <c r="B96" t="s">
         <v>187</v>
-      </c>
-      <c r="B96" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B97" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B98" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B99" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B100" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
+        <v>222</v>
+      </c>
+      <c r="B101" t="s">
         <v>223</v>
-      </c>
-      <c r="B101" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B103" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B104" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B105" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B106" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B107" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B108" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B109" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B110" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
+        <v>203</v>
+      </c>
+      <c r="B111" t="s">
         <v>204</v>
-      </c>
-      <c r="B111" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B112" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B113" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
+        <v>207</v>
+      </c>
+      <c r="B114" t="s">
         <v>208</v>
-      </c>
-      <c r="B114" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
+        <v>225</v>
+      </c>
+      <c r="B115" t="s">
         <v>226</v>
       </c>
-      <c r="B115" t="s">
-        <v>227</v>
-      </c>
       <c r="C115" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
+        <v>227</v>
+      </c>
+      <c r="B116" t="s">
         <v>228</v>
-      </c>
-      <c r="B116" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
+        <v>230</v>
+      </c>
+      <c r="B117" t="s">
         <v>231</v>
-      </c>
-      <c r="B117" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
+        <v>232</v>
+      </c>
+      <c r="B118" t="s">
         <v>233</v>
-      </c>
-      <c r="B118" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
+        <v>234</v>
+      </c>
+      <c r="B119" t="s">
         <v>235</v>
-      </c>
-      <c r="B119" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
+        <v>236</v>
+      </c>
+      <c r="B120" t="s">
         <v>237</v>
-      </c>
-      <c r="B120" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
+        <v>238</v>
+      </c>
+      <c r="B121" t="s">
         <v>239</v>
-      </c>
-      <c r="B121" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
+        <v>240</v>
+      </c>
+      <c r="B122" t="s">
         <v>241</v>
-      </c>
-      <c r="B122" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
+        <v>242</v>
+      </c>
+      <c r="B123" t="s">
         <v>243</v>
-      </c>
-      <c r="B123" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
+        <v>244</v>
+      </c>
+      <c r="B124" t="s">
         <v>245</v>
-      </c>
-      <c r="B124" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
+        <v>246</v>
+      </c>
+      <c r="B125" t="s">
         <v>247</v>
-      </c>
-      <c r="B125" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B126" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
+        <v>248</v>
+      </c>
+      <c r="B127" t="s">
         <v>249</v>
       </c>
-      <c r="B127" t="s">
-        <v>250</v>
-      </c>
       <c r="C127" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
+        <v>250</v>
+      </c>
+      <c r="B128" t="s">
         <v>251</v>
-      </c>
-      <c r="B128" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
+        <v>252</v>
+      </c>
+      <c r="B129" t="s">
         <v>253</v>
-      </c>
-      <c r="B129" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
+        <v>254</v>
+      </c>
+      <c r="B130" t="s">
         <v>255</v>
-      </c>
-      <c r="B130" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
+        <v>256</v>
+      </c>
+      <c r="B131" t="s">
         <v>257</v>
-      </c>
-      <c r="B131" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B132" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
+        <v>260</v>
+      </c>
+      <c r="B133" t="s">
         <v>261</v>
-      </c>
-      <c r="B133" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
+        <v>262</v>
+      </c>
+      <c r="B134" t="s">
         <v>263</v>
-      </c>
-      <c r="B134" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
+        <v>264</v>
+      </c>
+      <c r="B135" t="s">
         <v>265</v>
-      </c>
-      <c r="B135" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
+        <v>266</v>
+      </c>
+      <c r="B136" t="s">
         <v>267</v>
-      </c>
-      <c r="B136" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
+        <v>268</v>
+      </c>
+      <c r="B137" t="s">
         <v>269</v>
-      </c>
-      <c r="B137" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
+        <v>270</v>
+      </c>
+      <c r="B138" t="s">
         <v>271</v>
-      </c>
-      <c r="B138" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
+        <v>272</v>
+      </c>
+      <c r="B139" t="s">
         <v>273</v>
-      </c>
-      <c r="B139" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
+        <v>274</v>
+      </c>
+      <c r="B140" t="s">
         <v>275</v>
-      </c>
-      <c r="B140" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
+        <v>276</v>
+      </c>
+      <c r="B141" t="s">
         <v>277</v>
-      </c>
-      <c r="B141" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
+        <v>278</v>
+      </c>
+      <c r="B142" t="s">
         <v>279</v>
-      </c>
-      <c r="B142" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B143" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C143" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B144" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
+        <v>285</v>
+      </c>
+      <c r="B145" t="s">
         <v>286</v>
-      </c>
-      <c r="B145" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
+        <v>287</v>
+      </c>
+      <c r="B146" t="s">
         <v>288</v>
-      </c>
-      <c r="B146" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B147" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
+        <v>290</v>
+      </c>
+      <c r="B148" t="s">
         <v>291</v>
-      </c>
-      <c r="B148" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
+        <v>292</v>
+      </c>
+      <c r="B149" t="s">
         <v>293</v>
-      </c>
-      <c r="B149" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
+        <v>295</v>
+      </c>
+      <c r="B150" t="s">
         <v>296</v>
-      </c>
-      <c r="B150" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B151" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
+        <v>298</v>
+      </c>
+      <c r="B152" t="s">
         <v>299</v>
-      </c>
-      <c r="B152" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
+        <v>300</v>
+      </c>
+      <c r="B153" t="s">
         <v>301</v>
-      </c>
-      <c r="B153" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
+        <v>302</v>
+      </c>
+      <c r="B154" t="s">
         <v>303</v>
-      </c>
-      <c r="B154" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
+        <v>304</v>
+      </c>
+      <c r="B155" t="s">
         <v>305</v>
-      </c>
-      <c r="B155" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
+        <v>306</v>
+      </c>
+      <c r="B156" t="s">
         <v>307</v>
-      </c>
-      <c r="B156" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B157" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
+        <v>309</v>
+      </c>
+      <c r="B158" t="s">
         <v>310</v>
-      </c>
-      <c r="B158" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
+        <v>326</v>
+      </c>
+      <c r="B159" t="s">
+        <v>313</v>
+      </c>
+      <c r="C159" t="s">
         <v>327</v>
-      </c>
-      <c r="B159" t="s">
-        <v>314</v>
-      </c>
-      <c r="C159" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B160" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
+        <v>315</v>
+      </c>
+      <c r="B161" t="s">
         <v>316</v>
-      </c>
-      <c r="B161" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
+        <v>317</v>
+      </c>
+      <c r="B162" t="s">
         <v>318</v>
-      </c>
-      <c r="B162" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
+        <v>319</v>
+      </c>
+      <c r="B163" t="s">
         <v>320</v>
-      </c>
-      <c r="B163" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
+        <v>321</v>
+      </c>
+      <c r="B164" t="s">
         <v>322</v>
-      </c>
-      <c r="B164" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
+        <v>242</v>
+      </c>
+      <c r="B165" t="s">
         <v>243</v>
-      </c>
-      <c r="B165" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
+        <v>323</v>
+      </c>
+      <c r="B166" t="s">
         <v>324</v>
-      </c>
-      <c r="B166" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
+        <v>270</v>
+      </c>
+      <c r="B167" t="s">
         <v>271</v>
-      </c>
-      <c r="B167" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
+        <v>328</v>
+      </c>
+      <c r="B168" t="s">
         <v>329</v>
-      </c>
-      <c r="B168" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
+        <v>330</v>
+      </c>
+      <c r="B169" t="s">
         <v>331</v>
-      </c>
-      <c r="B169" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
+        <v>332</v>
+      </c>
+      <c r="B170" t="s">
         <v>333</v>
-      </c>
-      <c r="B170" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
+        <v>334</v>
+      </c>
+      <c r="B171" t="s">
         <v>335</v>
-      </c>
-      <c r="B171" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
+        <v>336</v>
+      </c>
+      <c r="B172" t="s">
         <v>337</v>
-      </c>
-      <c r="B172" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
+        <v>338</v>
+      </c>
+      <c r="B173" t="s">
         <v>339</v>
-      </c>
-      <c r="B173" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
+        <v>340</v>
+      </c>
+      <c r="B174" t="s">
         <v>341</v>
-      </c>
-      <c r="B174" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
+        <v>342</v>
+      </c>
+      <c r="B175" t="s">
         <v>343</v>
-      </c>
-      <c r="B175" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B176" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
+        <v>345</v>
+      </c>
+      <c r="B177" t="s">
         <v>346</v>
-      </c>
-      <c r="B177" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
+        <v>347</v>
+      </c>
+      <c r="B178" t="s">
         <v>348</v>
-      </c>
-      <c r="B178" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
+        <v>349</v>
+      </c>
+      <c r="B179" t="s">
         <v>350</v>
-      </c>
-      <c r="B179" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
+        <v>351</v>
+      </c>
+      <c r="B180" t="s">
         <v>352</v>
-      </c>
-      <c r="B180" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
+        <v>353</v>
+      </c>
+      <c r="B181" t="s">
         <v>354</v>
-      </c>
-      <c r="B181" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B182" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C182" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
+        <v>357</v>
+      </c>
+      <c r="B183" t="s">
         <v>358</v>
-      </c>
-      <c r="B183" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
+        <v>359</v>
+      </c>
+      <c r="B184" t="s">
         <v>360</v>
-      </c>
-      <c r="B184" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
+        <v>361</v>
+      </c>
+      <c r="B185" t="s">
         <v>362</v>
-      </c>
-      <c r="B185" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
+        <v>364</v>
+      </c>
+      <c r="B186" t="s">
         <v>365</v>
-      </c>
-      <c r="B186" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
+        <v>366</v>
+      </c>
+      <c r="B187" t="s">
         <v>367</v>
-      </c>
-      <c r="B187" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="B188" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B189" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B190" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B191" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C191" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
+        <v>386</v>
+      </c>
+      <c r="B192" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A193" t="s">
+        <v>376</v>
+      </c>
+      <c r="B193" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A194" t="s">
+        <v>378</v>
+      </c>
+      <c r="B194" t="s">
         <v>379</v>
       </c>
-      <c r="B192" t="s">
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A195" t="s">
+        <v>387</v>
+      </c>
+      <c r="B195" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A193" t="s">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A196" t="s">
         <v>381</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B196" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A194" t="s">
-        <v>383</v>
-      </c>
-      <c r="B194" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A195" t="s">
-        <v>385</v>
-      </c>
-      <c r="B195" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A196" t="s">
-        <v>387</v>
-      </c>
-      <c r="B196" t="s">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A197" t="s">
+        <v>357</v>
+      </c>
+      <c r="B197" t="s">
+        <v>394</v>
+      </c>
+      <c r="C197" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A198" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A198" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B198" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
+        <v>392</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>99</v>
+        <v>389</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A201" t="s">
+        <v>390</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A202" t="s">
+        <v>391</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A203" t="s">
+        <v>400</v>
+      </c>
+      <c r="B203" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A204" t="s">
+        <v>402</v>
+      </c>
+      <c r="B204" t="s">
+        <v>403</v>
+      </c>
+      <c r="C204" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A205" t="s">
+        <v>404</v>
+      </c>
+      <c r="B205" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A206" t="s">
+        <v>406</v>
+      </c>
+      <c r="B206" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A207" t="s">
+        <v>408</v>
+      </c>
+      <c r="B207" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A208" t="s">
+        <v>410</v>
+      </c>
+      <c r="B208" t="s">
+        <v>411</v>
       </c>
     </row>
   </sheetData>
